--- a/atividades (1).xlsx
+++ b/atividades (1).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Google Drive\Regis\Gui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E596C58-4297-4922-A182-F7621D748D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F5AB9-99E3-472A-8AA5-084532E3B25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="18000" windowHeight="9360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
     <sheet name="Reuniões" sheetId="2" r:id="rId2"/>
+    <sheet name="atividades realizadas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -97,7 +98,25 @@
     <t xml:space="preserve">Entender o problema de pesquisa </t>
   </si>
   <si>
-    <t>Transpor os dados para SPSS</t>
+    <t>Transpor os dados para SPSS p/ stata</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Teve que adicionar o refaturamente da base de dados para ajustar ao modelo em Painel</t>
+  </si>
+  <si>
+    <t>Foi necessário realizar transformação de dados além de tratamento de outliers</t>
+  </si>
+  <si>
+    <t>Teste script</t>
+  </si>
+  <si>
+    <t>Escrita</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -107,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +172,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,6 +281,30 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -703,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0432FDE9-4E55-4A72-ACC2-B6F60BDE75C2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +805,226 @@
         <v>0.9902777777777777</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43899</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>